--- a/src/main/resources/ProfitTemplate.xlsx
+++ b/src/main/resources/ProfitTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\git\phoenixsbk\Reporter\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Gross sales</t>
   </si>
@@ -136,39 +136,41 @@
   </si>
   <si>
     <t>BUD</t>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="26">
+  <numFmts count="24">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="#,##0.0"/>
-    <numFmt numFmtId="186" formatCode="0.0%"/>
-    <numFmt numFmtId="189" formatCode="mmmm"/>
-    <numFmt numFmtId="190" formatCode="_-* #,##0.00_$_-;\-* #,##0.00_$_-;_-* &quot;-&quot;??_$_-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="d/m/yy\ h:mm"/>
-    <numFmt numFmtId="192" formatCode="#,##0.0000000000000"/>
-    <numFmt numFmtId="193" formatCode="d/m/yy"/>
-    <numFmt numFmtId="194" formatCode="&quot;ÖS&quot;\ #,##0;\-&quot;ÖS&quot;\ #,##0"/>
-    <numFmt numFmtId="195" formatCode="000#.000"/>
-    <numFmt numFmtId="196" formatCode="0.00_)"/>
-    <numFmt numFmtId="197" formatCode="#,##0.00&quot;$&quot;;\-#,##0.00&quot;$&quot;"/>
-    <numFmt numFmtId="198" formatCode="&quot;ÖS&quot;\ #,##0;[Red]\-&quot;ÖS&quot;\ #,##0"/>
-    <numFmt numFmtId="199" formatCode="&quot;ÖS&quot;\ #,##0.00;\-&quot;ÖS&quot;\ #,##0.00"/>
-    <numFmt numFmtId="200" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="201" formatCode="_-&quot;L.&quot;\ * #,##0.00_-;\-&quot;L.&quot;\ * #,##0.00_-;_-&quot;L.&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="202" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="203" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="204" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="208" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="#,##0.0"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="mmmm"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.00_$_-;\-* #,##0.00_$_-;_-* &quot;-&quot;??_$_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="d/m/yy\ h:mm"/>
+    <numFmt numFmtId="184" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="185" formatCode="d/m/yy"/>
+    <numFmt numFmtId="186" formatCode="&quot;ÖS&quot;\ #,##0;\-&quot;ÖS&quot;\ #,##0"/>
+    <numFmt numFmtId="187" formatCode="000#.000"/>
+    <numFmt numFmtId="188" formatCode="0.00_)"/>
+    <numFmt numFmtId="189" formatCode="#,##0.00&quot;$&quot;;\-#,##0.00&quot;$&quot;"/>
+    <numFmt numFmtId="190" formatCode="&quot;ÖS&quot;\ #,##0;[Red]\-&quot;ÖS&quot;\ #,##0"/>
+    <numFmt numFmtId="191" formatCode="&quot;ÖS&quot;\ #,##0.00;\-&quot;ÖS&quot;\ #,##0.00"/>
+    <numFmt numFmtId="192" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="193" formatCode="_-&quot;L.&quot;\ * #,##0.00_-;\-&quot;L.&quot;\ * #,##0.00_-;_-&quot;L.&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="194" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="195" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="196" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="197" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -653,130 +655,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="197" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="12" fillId="0" borderId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="187" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="197" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="190" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="192" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="193" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="194" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="208" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="12" fillId="0" borderId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="196" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="197" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="195" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="191" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="208" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="198" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="199" fontId="7" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="200" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="192" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="193" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -786,104 +788,104 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="197" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="202" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="208" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="204" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="195" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="204" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="195" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="197" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="197" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,58 +896,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="11" fillId="16" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="16" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="6" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="197" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="197" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="4" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="7" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="11" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="4" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="11" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="17" borderId="12" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="5" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="17" borderId="12" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="5" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="8" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="5" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="17" borderId="13" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="14" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="7" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="15" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="8" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="7" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="9" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="8" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="10" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="9" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="14" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="10" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="15" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1392,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1419,23 +1421,23 @@
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1510,97 +1512,102 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="14" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="14.25" thickBot="1">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:1" ht="14.25" thickBot="1">
+      <c r="A40" s="15" t="s">
         <v>32</v>
       </c>
     </row>
